--- a/DAQData.xlsx
+++ b/DAQData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hhr19\OneDrive\Desktop\DAQProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hhr19\OneDrive\Desktop\DAQProject\DAQGIT\DAQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D9A2A-1242-4BC3-892A-7E7C59165A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E18B3B-06E4-439F-BC3F-3012493BB7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{47BB695D-63C1-4788-8B13-0CB6874283B8}"/>
   </bookViews>
@@ -175,10 +175,10 @@
     <t>Historical Data</t>
   </si>
   <si>
-    <t>DD563C5A-80DD-4069-8237-2D38CC9EB96D</t>
-  </si>
-  <si>
-    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH5","IsGhost":false,"Name":"CH5","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH6","IsGhost":false,"Name":"CH6","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH7","IsGhost":false,"Name":"CH7","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH8","IsGhost":false,"Name":"CH8","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH9","IsGhost":false,"Name":"CH9","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH10","IsGhost":false,"Name":"CH10","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"DD563C5A-80DD-4069-8237-2D38CC9EB96D","IsGenerated":true,"Name":"Arduino Mega 2560","Version":null,"BaudRate":9600}</t>
+    <t>AA6C8B52-17DE-4880-BD98-5D190F4030D6</t>
+  </si>
+  <si>
+    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH5","IsGhost":false,"Name":"CH5","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH6","IsGhost":false,"Name":"CH6","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH7","IsGhost":false,"Name":"CH7","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH8","IsGhost":false,"Name":"CH8","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH9","IsGhost":false,"Name":"CH9","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH10","IsGhost":false,"Name":"CH10","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"AA6C8B52-17DE-4880-BD98-5D190F4030D6","IsGenerated":true,"Name":"Arduino Mega 2560","Version":null,"BaudRate":9600}</t>
   </si>
 </sst>
 </file>
@@ -581,12 +581,138 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -603,152 +729,42 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1647,10 +1663,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
+        <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A053A1-7308-221E-9C75-2FBDC29CABAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C789159-C62D-AD36-5154-B553DBA6CEED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC18B984-87AF-4F97-8C45-A32C798CB829}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2120,7 +2138,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,340 +2150,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="A5" s="18">
+        <v>45611.694177893522</v>
+      </c>
+      <c r="B5" s="17">
+        <v>36.56</v>
+      </c>
+      <c r="C5" s="17">
+        <v>-2.63</v>
+      </c>
+      <c r="D5" s="17">
+        <v>-1.81</v>
+      </c>
+      <c r="E5" s="48">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="48">
+        <v>255</v>
+      </c>
+      <c r="I5" s="17">
+        <v>252</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="A8" s="21">
+        <v>45611.694169548609</v>
+      </c>
+      <c r="B8" s="19">
+        <v>30.37</v>
+      </c>
+      <c r="C8" s="19">
+        <v>-2.5</v>
+      </c>
+      <c r="D8" s="19">
+        <v>-1.81</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="51">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
+        <v>266</v>
+      </c>
+      <c r="I8" s="19">
+        <v>264</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="A9" s="22">
+        <v>45611.694170173614</v>
+      </c>
+      <c r="B9" s="20">
+        <v>30.5</v>
+      </c>
+      <c r="C9" s="20">
+        <v>-2.5</v>
+      </c>
+      <c r="D9" s="20">
+        <v>-1.81</v>
+      </c>
+      <c r="E9" s="50">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>266</v>
+      </c>
+      <c r="I9" s="20">
+        <v>264</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="A10" s="22">
+        <v>45611.69417072917</v>
+      </c>
+      <c r="B10" s="20">
+        <v>30.75</v>
+      </c>
+      <c r="C10" s="20">
+        <v>-2.5</v>
+      </c>
+      <c r="D10" s="20">
+        <v>-1.81</v>
+      </c>
+      <c r="E10" s="50">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="20">
+        <v>267</v>
+      </c>
+      <c r="I10" s="20">
+        <v>264</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="A11" s="22">
+        <v>45611.694171354167</v>
+      </c>
+      <c r="B11" s="20">
+        <v>31.69</v>
+      </c>
+      <c r="C11" s="20">
+        <v>-2.56</v>
+      </c>
+      <c r="D11" s="20">
+        <v>-1.81</v>
+      </c>
+      <c r="E11" s="50">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="50">
+        <v>270</v>
+      </c>
+      <c r="I11" s="20">
+        <v>267</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="A12" s="22">
+        <v>45611.694171967596</v>
+      </c>
+      <c r="B12" s="20">
+        <v>32.94</v>
+      </c>
+      <c r="C12" s="20">
+        <v>-2.63</v>
+      </c>
+      <c r="D12" s="20">
+        <v>-1.81</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="50">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>269</v>
+      </c>
+      <c r="I12" s="20">
+        <v>267</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="A13" s="22">
+        <v>45611.694172546297</v>
+      </c>
+      <c r="B13" s="20">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-2.63</v>
+      </c>
+      <c r="D13" s="20">
+        <v>-1.81</v>
+      </c>
+      <c r="E13" s="50">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>268</v>
+      </c>
+      <c r="I13" s="20">
+        <v>266</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="A14" s="22">
+        <v>45611.694173148149</v>
+      </c>
+      <c r="B14" s="20">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="C14" s="20">
+        <v>-2.69</v>
+      </c>
+      <c r="D14" s="20">
+        <v>-1.69</v>
+      </c>
+      <c r="E14" s="50">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>267</v>
+      </c>
+      <c r="I14" s="20">
+        <v>265</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="A15" s="22">
+        <v>45611.694173715281</v>
+      </c>
+      <c r="B15" s="20">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="C15" s="20">
+        <v>-2.69</v>
+      </c>
+      <c r="D15" s="20">
+        <v>-1.69</v>
+      </c>
+      <c r="E15" s="50">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="50">
+        <v>267</v>
+      </c>
+      <c r="I15" s="20">
+        <v>264</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
+      <c r="A16" s="22">
+        <v>45611.694174293982</v>
+      </c>
+      <c r="B16" s="20">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="C16" s="20">
+        <v>-2.63</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-1.75</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="50">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>264</v>
+      </c>
+      <c r="I16" s="20">
+        <v>262</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="A17" s="22">
+        <v>45611.69417490741</v>
+      </c>
+      <c r="B17" s="20">
+        <v>36</v>
+      </c>
+      <c r="C17" s="20">
+        <v>-2.63</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-1.81</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <v>259</v>
+      </c>
+      <c r="I17" s="20">
+        <v>258</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="A18" s="22">
+        <v>45611.694175532408</v>
+      </c>
+      <c r="B18" s="20">
+        <v>35.94</v>
+      </c>
+      <c r="C18" s="20">
+        <v>-2.63</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-1.75</v>
+      </c>
+      <c r="E18" s="50">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="50">
+        <v>251</v>
+      </c>
+      <c r="I18" s="20">
+        <v>248</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
+      <c r="A19" s="22">
+        <v>45611.69417609954</v>
+      </c>
+      <c r="B19" s="20">
+        <v>36.31</v>
+      </c>
+      <c r="C19" s="20">
+        <v>-2.56</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-1.81</v>
+      </c>
+      <c r="E19" s="50">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>251</v>
+      </c>
+      <c r="I19" s="20">
+        <v>249</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="A20" s="22">
+        <v>45611.694176712961</v>
+      </c>
+      <c r="B20" s="20">
+        <v>36.56</v>
+      </c>
+      <c r="C20" s="20">
+        <v>-2.63</v>
+      </c>
+      <c r="D20" s="20">
+        <v>-1.81</v>
+      </c>
+      <c r="E20" s="50">
+        <v>0</v>
+      </c>
+      <c r="F20" s="50">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <v>253</v>
+      </c>
+      <c r="I20" s="20">
+        <v>250</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="A21" s="22">
+        <v>45611.694177280093</v>
+      </c>
+      <c r="B21" s="20">
+        <v>36.56</v>
+      </c>
+      <c r="C21" s="20">
+        <v>-2.63</v>
+      </c>
+      <c r="D21" s="20">
+        <v>-1.81</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20">
+        <v>255</v>
+      </c>
+      <c r="I21" s="20">
+        <v>252</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="A22" s="23">
+        <v>45611.694177893522</v>
+      </c>
+      <c r="B22" s="24">
+        <v>36.56</v>
+      </c>
+      <c r="C22" s="24">
+        <v>-2.63</v>
+      </c>
+      <c r="D22" s="24">
+        <v>-1.81</v>
+      </c>
+      <c r="E22" s="49">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0</v>
+      </c>
+      <c r="H22" s="49">
+        <v>255</v>
+      </c>
+      <c r="I22" s="24">
+        <v>252</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2521,73 +2827,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2608,86 +2914,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="0.21875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="30.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="0.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="13">
         <v>150</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="14">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="13">
         <v>15</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="13">
         <v>10</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2696,19 +3002,19 @@
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{0EB420B3-9D33-4BB0-A747-AB141B9DCF97}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{E1780791-35B9-4855-971C-C0A9409B8CC6}">
       <formula1>10</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{C86FCD4E-2438-431E-B9B3-449AC989A4C8}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{78C77E08-B7D8-48F3-8639-5A8A44407986}">
       <formula1>1</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{B424B195-AF17-42C1-B234-A8579D9EE916}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{934B69A8-D756-4DA4-9E51-3F0246A0DC78}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{BA4A4BAA-87DA-48F8-8A82-75812CDEB85E}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{3A87E780-BC1D-4134-91EC-7ABE1F12A317}">
       <formula1>"Newest first,Newest last"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2739,236 +3045,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="L1" s="4" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="L1" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="I4" s="5" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="I4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4">
+      <c r="J5" s="39"/>
+      <c r="K5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="40">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="40">
         <v>9600</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
@@ -2977,6 +3282,7 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
